--- a/python/src/jobanalysis/test/test.xlsx
+++ b/python/src/jobanalysis/test/test.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="match" sheetId="1" r:id="rId1"/>
+    <sheet name="tf-idf" sheetId="2" r:id="rId2"/>
+    <sheet name="okapi25" sheetId="3" r:id="rId3"/>
+    <sheet name="kl" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
   <si>
     <t>resume2</t>
   </si>
@@ -378,8 +381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,4 +463,268 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/python/src/jobanalysis/test/test.xlsx
+++ b/python/src/jobanalysis/test/test.xlsx
@@ -12,7 +12,7 @@
     <sheet name="okapi25" sheetId="3" r:id="rId3"/>
     <sheet name="kl" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -379,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,7 +393,7 @@
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -407,7 +407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -418,7 +418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -431,8 +431,12 @@
       <c r="D3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f>(B3/A3+C3/A3+D3/A3)/3</f>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -445,8 +449,12 @@
       <c r="D4">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" ref="E4:E5" si="0">(B4/A4+C4/A4+D4/A4)/3</f>
+        <v>0.93333333333333324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
@@ -458,6 +466,10 @@
       </c>
       <c r="D5">
         <v>19</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.79999999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -467,10 +479,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +493,7 @@
     <col min="4" max="4" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -495,7 +507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -506,7 +518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -519,8 +531,12 @@
       <c r="D3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f>(B3/A3+C3/A3+D3/A3)/3</f>
+        <v>0.73333333333333339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -533,8 +549,12 @@
       <c r="D4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" ref="E4:E5" si="0">(B4/A4+C4/A4+D4/A4)/3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
@@ -546,6 +566,10 @@
       </c>
       <c r="D5">
         <v>5</v>
+      </c>
+      <c r="E5">
+        <f>(B5/A5+C5/A5+D5/A5)/3</f>
+        <v>0.35000000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -555,10 +579,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="E3" sqref="E3:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,9 +591,10 @@
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -583,7 +608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -594,7 +619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -607,8 +632,12 @@
       <c r="D3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f>(B3/A3+C3/A3+D3/A3)/3</f>
+        <v>0.73333333333333339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -621,8 +650,12 @@
       <c r="D4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" ref="E4:E5" si="0">(B4/A4+C4/A4+D4/A4)/3</f>
+        <v>0.46666666666666662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
@@ -634,6 +667,10 @@
       </c>
       <c r="D5">
         <v>7</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>
@@ -643,10 +680,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,9 +692,10 @@
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -671,7 +709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -682,7 +720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -695,8 +733,12 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f>(B3/A3+C3/A3+D3/A3)/3</f>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -709,8 +751,12 @@
       <c r="D4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" ref="E4:E5" si="0">(B4/A4+C4/A4+D4/A4)/3</f>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
@@ -722,6 +768,10 @@
       </c>
       <c r="D5">
         <v>4</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.21666666666666667</v>
       </c>
     </row>
   </sheetData>
